--- a/Answers.xlsx
+++ b/Answers.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshG\Documents\Machine Learning\JobApp_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A9225D-7352-4213-9A90-A37F5BDE3572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74488BFC-A894-4ECE-9032-B1C184977016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4524" windowWidth="23040" windowHeight="12156" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4524" windowWidth="23040" windowHeight="12156" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answers" sheetId="1" r:id="rId1"/>
-    <sheet name="WorkExp1" sheetId="2" r:id="rId2"/>
-    <sheet name="WorkExp2" sheetId="4" r:id="rId3"/>
+    <sheet name="RacistQuestions" sheetId="7" r:id="rId2"/>
+    <sheet name="WorkExp1" sheetId="2" r:id="rId3"/>
+    <sheet name="WorkExp2" sheetId="4" r:id="rId4"/>
+    <sheet name="Education1" sheetId="5" r:id="rId5"/>
+    <sheet name="Education2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>Questions</t>
   </si>
@@ -157,6 +160,90 @@
   </si>
   <si>
     <t>example role description</t>
+  </si>
+  <si>
+    <t>School or University</t>
+  </si>
+  <si>
+    <t>California State Polytechnic University Pomona</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Field of Study</t>
+  </si>
+  <si>
+    <t>Bachelors Degree</t>
+  </si>
+  <si>
+    <t>Overall Result (GPA)</t>
+  </si>
+  <si>
+    <t>Example University</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Mechanical engineering</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>01/01/2021</t>
+  </si>
+  <si>
+    <t>01/01/2019</t>
+  </si>
+  <si>
+    <t>02/05/2022</t>
+  </si>
+  <si>
+    <t>To (Actual or Expected)</t>
+  </si>
+  <si>
+    <t>Are you at least 18 years of age? (If not, your employment is subject to verification that you are of at least legal age and that you are able to supply any required work permit).</t>
+  </si>
+  <si>
+    <t>Are you legally eligible to work in the country to which you are applying?</t>
+  </si>
+  <si>
+    <t>Have you ever been granted a government Security Clearance?</t>
+  </si>
+  <si>
+    <t>Have you signed an employment agreement or any kind of restrictive covenant, covenant not to compete, non-solicitation, or a contract of any kind that might restrict your ability to perform duties for this Company?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Will you now or in the future require sponsorship for employment Visa status to be eligible to work in the country to which you are applying?(e.g., H-1B Visa status/Work Visa/Work Permit)?</t>
+  </si>
+  <si>
+    <t>Please select your gender which most accurately describes how you identify yourself.</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Please select your race which most accurately describes how you identify yourself.</t>
+  </si>
+  <si>
+    <t>White (United States of America)</t>
+  </si>
+  <si>
+    <t>Please indicate if you are Hispanic or Latino.</t>
+  </si>
+  <si>
+    <t>Please select the veteran status which most accurately describes your status.</t>
+  </si>
+  <si>
+    <t>I AM NOT A VETERAN</t>
+  </si>
+  <si>
+    <t>I certify that I have read, fully understand and accept all terms of the foregoing statement.</t>
   </si>
 </sst>
 </file>
@@ -998,9 +1085,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1121,12 +1210,115 @@
         <v>22</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD30DA9-1F89-4EEA-89BE-5777D749B276}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -1206,12 +1398,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FA0E8D-C3CB-498E-8482-FEFEA5E44A4E}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1286,4 +1478,154 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72582110-15AB-4C02-A2DF-4F13FA55FDE6}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A32BAAC-A3B1-44A0-92A3-909E5385600D}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Answers.xlsx
+++ b/Answers.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshG\Documents\Machine Learning\JobApp_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74488BFC-A894-4ECE-9032-B1C184977016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6813BA26-C550-48D5-9678-BC9F39D0F757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4524" windowWidth="23040" windowHeight="12156" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4524" windowWidth="23040" windowHeight="12156" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answers" sheetId="1" r:id="rId1"/>
     <sheet name="RacistQuestions" sheetId="7" r:id="rId2"/>
-    <sheet name="WorkExp1" sheetId="2" r:id="rId3"/>
-    <sheet name="WorkExp2" sheetId="4" r:id="rId4"/>
-    <sheet name="Education1" sheetId="5" r:id="rId5"/>
-    <sheet name="Education2" sheetId="6" r:id="rId6"/>
+    <sheet name="Disabilities" sheetId="8" r:id="rId3"/>
+    <sheet name="WorkExp1" sheetId="2" r:id="rId4"/>
+    <sheet name="WorkExp2" sheetId="4" r:id="rId5"/>
+    <sheet name="Education1" sheetId="5" r:id="rId6"/>
+    <sheet name="Education2" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>Questions</t>
   </si>
@@ -244,6 +245,33 @@
   </si>
   <si>
     <t>I certify that I have read, fully understand and accept all terms of the foregoing statement.</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Employee ID (if applicable)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>No, I Don't Have A Disability, Or A History/Record Of Having A Disability</t>
+  </si>
+  <si>
+    <t>Please check one of the boxes below:</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>02/01/2023</t>
   </si>
 </sst>
 </file>
@@ -1259,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD30DA9-1F89-4EEA-89BE-5777D749B276}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1319,6 +1347,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304DD53A-F240-4598-85F7-C24E844B5333}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -1398,7 +1489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FA0E8D-C3CB-498E-8482-FEFEA5E44A4E}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -1480,7 +1571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72582110-15AB-4C02-A2DF-4F13FA55FDE6}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1555,7 +1646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A32BAAC-A3B1-44A0-92A3-909E5385600D}">
   <dimension ref="A1:B10"/>
   <sheetViews>

--- a/Answers.xlsx
+++ b/Answers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshG\Documents\Machine Learning\JobApp_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6813BA26-C550-48D5-9678-BC9F39D0F757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A605F2-5E70-41A1-B2CF-FE665BC8AD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4524" windowWidth="23040" windowHeight="12156" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answers" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,25 @@
     <sheet name="Education1" sheetId="5" r:id="rId6"/>
     <sheet name="Education2" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>Questions</t>
   </si>
@@ -269,9 +282,6 @@
   </si>
   <si>
     <t>John Smith</t>
-  </si>
-  <si>
-    <t>02/01/2023</t>
   </si>
 </sst>
 </file>
@@ -755,9 +765,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1105,7 +1122,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1115,166 +1132,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="47" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>75074</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>9493312129</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1291,9 +1310,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1309,7 +1328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -1317,7 +1336,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -1325,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -1333,7 +1352,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1348,18 +1367,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304DD53A-F240-4598-85F7-C24E844B5333}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.90625" style="1"/>
+    <col min="2" max="2" width="17.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
@@ -1375,7 +1395,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
@@ -1383,20 +1403,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <f ca="1">TODAY()</f>
+        <v>44970</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -1417,9 +1439,9 @@
       <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1435,7 +1457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1443,7 +1465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1451,7 +1473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1459,7 +1481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1467,13 +1489,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1481,7 +1503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
@@ -1497,9 +1519,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1515,7 +1537,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1523,7 +1545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1531,7 +1553,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1539,7 +1561,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1547,7 +1569,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1555,7 +1577,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1563,7 +1585,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
@@ -1579,12 +1601,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1600,7 +1622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -1608,7 +1630,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -1616,7 +1638,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
@@ -1624,7 +1646,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1632,7 +1654,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
@@ -1654,12 +1676,12 @@
       <selection activeCell="A8" sqref="A8:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1675,7 +1697,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -1683,7 +1705,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -1691,7 +1713,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
@@ -1699,7 +1721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1707,7 +1729,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
@@ -1715,7 +1737,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Answers.xlsx
+++ b/Answers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshG\Documents\Machine Learning\JobApp_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A605F2-5E70-41A1-B2CF-FE665BC8AD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57233381-D19F-431A-8D3D-D1A37A6537F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answers" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Disabilities" sheetId="8" r:id="rId3"/>
     <sheet name="WorkExp1" sheetId="2" r:id="rId4"/>
     <sheet name="WorkExp2" sheetId="4" r:id="rId5"/>
-    <sheet name="Education1" sheetId="5" r:id="rId6"/>
-    <sheet name="Education2" sheetId="6" r:id="rId7"/>
+    <sheet name="WorkExp3" sheetId="9" r:id="rId6"/>
+    <sheet name="Education1" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
   <si>
     <t>Questions</t>
   </si>
@@ -68,21 +68,12 @@
     <t>First Name</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
     <t>Last Name</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
     <t>Address Line 1</t>
   </si>
   <si>
-    <t>1234 Example St</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -119,21 +110,12 @@
     <t>Job Title</t>
   </si>
   <si>
-    <t>Investigator</t>
-  </si>
-  <si>
     <t>Company</t>
   </si>
   <si>
-    <t>Investigations Inc</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>1234 auto st</t>
-  </si>
-  <si>
     <t>From</t>
   </si>
   <si>
@@ -149,33 +131,9 @@
     <t>Role Description</t>
   </si>
   <si>
-    <t>Work super hard, trust me bro</t>
-  </si>
-  <si>
-    <t>1/3/2023</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Example Co</t>
-  </si>
-  <si>
-    <t>568 automation drive</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>02/18/2021</t>
-  </si>
-  <si>
-    <t>06/28/2022</t>
-  </si>
-  <si>
-    <t>example role description</t>
-  </si>
-  <si>
     <t>School or University</t>
   </si>
   <si>
@@ -194,27 +152,12 @@
     <t>Overall Result (GPA)</t>
   </si>
   <si>
-    <t>Example University</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
     <t>Mechanical engineering</t>
   </si>
   <si>
-    <t>01/01/2016</t>
-  </si>
-  <si>
-    <t>01/01/2021</t>
-  </si>
-  <si>
     <t>01/01/2019</t>
   </si>
   <si>
-    <t>02/05/2022</t>
-  </si>
-  <si>
     <t>To (Actual or Expected)</t>
   </si>
   <si>
@@ -281,7 +224,85 @@
     <t>English</t>
   </si>
   <si>
-    <t>John Smith</t>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Godwin</t>
+  </si>
+  <si>
+    <t>2001 E Spring Creek Pkwy Apt 4311</t>
+  </si>
+  <si>
+    <t>9492203138</t>
+  </si>
+  <si>
+    <t>Joshua Godwin</t>
+  </si>
+  <si>
+    <t>Safety Engineer - HVAC</t>
+  </si>
+  <si>
+    <t>Intertek</t>
+  </si>
+  <si>
+    <t>1909 10th St #100, Plano, TX 75074</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>•	Managed multiple complex projects at Intertek, successfully billing over $360,000 or averaging over $30,000 per month, while maintaining an impeccable record of safety and compliance.
+•	Conducted thorough HVAC and component safety evaluations, utilizing extensive knowledge of national wiring codes, safety standards, wiring diagrams, product specifications, and component specifications to meticulously identify and mitigate potential safety hazards.
+•	Demonstrated advanced proficiency in evaluating products across a broad range of standards published by UL, CSA, ASHRAE, and IEC, including intricate knowledge of UL 60335-2-40, UL 1995, IEC 60335-2-89, and UL 60730-1.
+•	Developed rigorous test plans, ensuring strict adherence to safety standards and timely project completion, and oversaw testing, including developing test data plans, writing test reports, building test fixtures, and ensuring calibration compliance.
+•	Produced comprehensive technical reports, ETL reports, and quotes, skillfully conveying findings and recommendations to managers and clients with clear and concise language.
+•	Collaborated with cross-functional teams and various departments, demonstrating excellent communication and project management skills to ensure project success and client satisfaction.</t>
+  </si>
+  <si>
+    <t>Quality/Manufacturing Engineer Intern</t>
+  </si>
+  <si>
+    <t>11616 Harry Hines Blvd, Dallas, TX 75229</t>
+  </si>
+  <si>
+    <t>Rochester Sensors (Formerly Rochester Gauges)</t>
+  </si>
+  <si>
+    <t>03/01/2022</t>
+  </si>
+  <si>
+    <t>06/01/2021</t>
+  </si>
+  <si>
+    <t>12/11/2021</t>
+  </si>
+  <si>
+    <t>•	Accelerated repetitive tasks by coding Python scripts. 
+•	Assessed prototypes for feasibility through rigorous tests, including vibration, shock, leak, thermocycle, corrosion, and chemical testing to meet MIL-STD-810 standards. 
+•	Conducted measurement system analyses (MSA) to reduce production impacts, collaborating with quality engineering, production, and manufacturing departments. 
+•	Drafted technical documentation and test procedures reports in compliance with ISO 9001 requirements, reviewed control plans, and worked closely with vendors to obtain compliance certifications and approval</t>
+  </si>
+  <si>
+    <t>Assembler</t>
+  </si>
+  <si>
+    <t>Hirel Connectors</t>
+  </si>
+  <si>
+    <t>06/01/2020</t>
+  </si>
+  <si>
+    <t>08/01/2020</t>
+  </si>
+  <si>
+    <t>Assembled electrical connectors
+Tested parts to ensure met force disconnection requirements</t>
+  </si>
+  <si>
+    <t>3.79</t>
+  </si>
+  <si>
+    <t>12/01/2022</t>
   </si>
 </sst>
 </file>
@@ -1132,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1180,44 +1201,44 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
         <v>75074</v>
@@ -1225,57 +1246,57 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3">
-        <v>9493312129</v>
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>5</v>
@@ -1283,7 +1304,7 @@
     </row>
     <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>5</v>
@@ -1291,7 +1312,7 @@
     </row>
     <row r="21" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
@@ -1322,23 +1343,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1346,18 +1367,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1369,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304DD53A-F240-4598-85F7-C24E844B5333}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1389,41 +1410,41 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4">
         <f ca="1">TODAY()</f>
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1435,11 +1456,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.81640625" customWidth="1"/>
+    <col min="2" max="2" width="53.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1451,56 +1476,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1516,10 +1543,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="78.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1531,58 +1561,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="329.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1594,11 +1624,94 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30CA83B-AFAD-41EC-A795-FC9AE4B678EB}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="51.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72582110-15AB-4C02-A2DF-4F13FA55FDE6}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1616,129 +1729,54 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3.5</v>
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A32BAAC-A3B1-44A0-92A3-909E5385600D}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="8.90625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Answers.xlsx
+++ b/Answers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshG\Documents\Machine Learning\JobApp_Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8eb5a6fb7cb74f16/Documents/GitHub/WorkdayAutomatedJobApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57233381-D19F-431A-8D3D-D1A37A6537F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{57233381-D19F-431A-8D3D-D1A37A6537F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48223D7A-16C5-48F1-A660-419B7761F392}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answers" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
   <si>
     <t>Questions</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Phone Device Type</t>
   </si>
   <si>
-    <t>CELL</t>
-  </si>
-  <si>
     <t>Phone Number</t>
   </si>
   <si>
@@ -146,15 +143,9 @@
     <t>Field of Study</t>
   </si>
   <si>
-    <t>Bachelors Degree</t>
-  </si>
-  <si>
     <t>Overall Result (GPA)</t>
   </si>
   <si>
-    <t>Mechanical engineering</t>
-  </si>
-  <si>
     <t>01/01/2019</t>
   </si>
   <si>
@@ -249,14 +240,6 @@
   </si>
   <si>
     <t>Present</t>
-  </si>
-  <si>
-    <t>•	Managed multiple complex projects at Intertek, successfully billing over $360,000 or averaging over $30,000 per month, while maintaining an impeccable record of safety and compliance.
-•	Conducted thorough HVAC and component safety evaluations, utilizing extensive knowledge of national wiring codes, safety standards, wiring diagrams, product specifications, and component specifications to meticulously identify and mitigate potential safety hazards.
-•	Demonstrated advanced proficiency in evaluating products across a broad range of standards published by UL, CSA, ASHRAE, and IEC, including intricate knowledge of UL 60335-2-40, UL 1995, IEC 60335-2-89, and UL 60730-1.
-•	Developed rigorous test plans, ensuring strict adherence to safety standards and timely project completion, and oversaw testing, including developing test data plans, writing test reports, building test fixtures, and ensuring calibration compliance.
-•	Produced comprehensive technical reports, ETL reports, and quotes, skillfully conveying findings and recommendations to managers and clients with clear and concise language.
-•	Collaborated with cross-functional teams and various departments, demonstrating excellent communication and project management skills to ensure project success and client satisfaction.</t>
   </si>
   <si>
     <t>Quality/Manufacturing Engineer Intern</t>
@@ -303,6 +286,42 @@
   </si>
   <si>
     <t>12/01/2022</t>
+  </si>
+  <si>
+    <t>CELL, MOBILE</t>
+  </si>
+  <si>
+    <t>-Managed multiple complex projects at Intertek, successfully billing over $360,000 or averaging over $30,000 per month, while maintaining an impeccable record of safety and compliance.
+-Conducted thorough HVAC and component safety evaluations, utilizing extensive knowledge of national wiring codes, safety standards, wiring diagrams, product specifications, and component specifications to meticulously identify and mitigate potential safety hazards.
+-Demonstrated advanced proficiency in evaluating products across a broad range of standards published by UL, CSA, ASHRAE, and IEC, including intricate knowledge of UL 60335-2-40, UL 1995, IEC 60335-2-89, and UL 60730-1.
+-Developed rigorous test plans, ensuring strict adherence to safety standards and timely project completion, and oversaw testing, including developing test data plans, writing test reports, building test fixtures, and ensuring calibration compliance.
+-Produced comprehensive technical reports, ETL reports, and quotes, skillfully conveying findings and recommendations to managers and clients with clear and concise language.
+-Collaborated with cross-functional teams and various departments, demonstrating excellent communication and project management skills to ensure project success and client satisfaction.</t>
+  </si>
+  <si>
+    <t>Address Line 2</t>
+  </si>
+  <si>
+    <t>Bachelor's Degree, Bachelors Degree</t>
+  </si>
+  <si>
+    <t>Mechanical engineering, Mechanical Engineer</t>
+  </si>
+  <si>
+    <t>Accenture is committed to not hiring employees who are not of the minimum legal age to work. For individuals under the age of 18 we have to confirm that they are legally entitled to work. Are you at least 18 years of age?</t>
+  </si>
+  <si>
+    <t>Are you currently legally authorized to work in the United States?</t>
+  </si>
+  <si>
+    <t>Do you now or will you in the future require sponsorship of a visa for employment authorization in the United States?  For example, are you currently in the US on an H-1B, F-1 OPT/CPT, TN, or any other employer-specific non-immigrant status, or have an EAD that may require sponsorship (e.g., a nonimmigrant visa for you or your spouse or an EAD issued in connection with an application for permanent residence (Form I-485))?</t>
+  </si>
+  <si>
+    <t>At your current employer, are you currently working on a project with Accenture or have you worked on a project with Accenture in the past 24 months?</t>
+  </si>
+  <si>
+    <t>Are you a current or former (past 5 years) Government Employee?
+“Government Employee” means current or former (past 5 years) officials, employees or interns (both paid and unpaid) of any organization, entity or agency (or instrumentality thereof) through which a political unit exercises authority, expresses its will or performs functions or which is the framework of political institutions, departments, or offices by which the executive, judicial, legislative or administrative business of the geography are carried out. This includes current or former (past 5 years) members of the military; elected or appointed government officials, even if part-time; officers employees or interns of government agencies; employees or interns of federal, state, regional and municipal agencies, even if only partially state-owned; employees or interns of public universities; and employees or interns of entities that are partially or wholly owned by federal, state, regional or municipal agencies. This definition is meant to be read broadly and is meant to include employees of quasi-governmental agencies.</t>
   </si>
 </sst>
 </file>
@@ -852,6 +871,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1151,20 +1174,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="2"/>
+    <col min="2" max="2" width="30.44140625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1180,7 +1203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1188,7 +1211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1196,31 +1219,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1228,7 +1251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1236,7 +1259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1244,78 +1267,123 @@
         <v>75074</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1331,9 +1399,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1341,44 +1409,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1394,13 +1462,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="1"/>
-    <col min="2" max="2" width="17.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1408,43 +1476,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="B5" s="4">
         <f ca="1">TODAY()</f>
-        <v>44971</v>
+        <v>44989</v>
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1456,17 +1524,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" customWidth="1"/>
-    <col min="2" max="2" width="53.1796875" customWidth="1"/>
+    <col min="1" max="1" width="29.77734375" customWidth="1"/>
+    <col min="2" max="2" width="53.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1474,63 +1542,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="8" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
@@ -1546,12 +1614,12 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="78.7265625" customWidth="1"/>
+    <col min="2" max="2" width="78.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1559,63 +1627,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="329.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="329.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
@@ -1631,13 +1699,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="51.54296875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,60 +1713,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1711,15 +1779,15 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.90625" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1727,52 +1795,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
